--- a/Data_clean/MCAS/Estados_US/Edos_USA_2024/FLORIDA_2024.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2024/FLORIDA_2024.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1597"/>
+  <dimension ref="A1:D1591"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -452,7 +452,7 @@
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C7">
@@ -465,7 +465,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C8">
@@ -478,7 +478,7 @@
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>San Francisco de los Romo</t>
+          <t>San Francisco De Los Romo</t>
         </is>
       </c>
       <c r="C9">
@@ -862,7 +862,7 @@
     <row r="37">
       <c r="B37" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C37">
@@ -875,7 +875,7 @@
     <row r="38">
       <c r="B38" t="inlineStr">
         <is>
-          <t>Amatenango del Valle</t>
+          <t>Amatenango Del Valle</t>
         </is>
       </c>
       <c r="C38">
@@ -927,7 +927,7 @@
     <row r="42">
       <c r="B42" t="inlineStr">
         <is>
-          <t>Bejucal de Ocampo</t>
+          <t>Bejucal De Ocampo</t>
         </is>
       </c>
       <c r="C42">
@@ -953,7 +953,7 @@
     <row r="44">
       <c r="B44" t="inlineStr">
         <is>
-          <t>Benemérito de las Américas</t>
+          <t>Benemérito De Las Américas</t>
         </is>
       </c>
       <c r="C44">
@@ -1070,7 +1070,7 @@
     <row r="53">
       <c r="B53" t="inlineStr">
         <is>
-          <t>Chiapa de Corzo</t>
+          <t>Chiapa De Corzo</t>
         </is>
       </c>
       <c r="C53">
@@ -1161,7 +1161,7 @@
     <row r="60">
       <c r="B60" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C60">
@@ -1564,7 +1564,7 @@
     <row r="91">
       <c r="B91" t="inlineStr">
         <is>
-          <t>Marqués de Comillas</t>
+          <t>Marqués De Comillas</t>
         </is>
       </c>
       <c r="C91">
@@ -1577,7 +1577,7 @@
     <row r="92">
       <c r="B92" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C92">
@@ -1642,7 +1642,7 @@
     <row r="97">
       <c r="B97" t="inlineStr">
         <is>
-          <t>Montecristo de Guerrero</t>
+          <t>Montecristo De Guerrero</t>
         </is>
       </c>
       <c r="C97">
@@ -1694,7 +1694,7 @@
     <row r="101">
       <c r="B101" t="inlineStr">
         <is>
-          <t>Ocozocoautla de Espinosa</t>
+          <t>Ocozocoautla De Espinosa</t>
         </is>
       </c>
       <c r="C101">
@@ -1850,7 +1850,7 @@
     <row r="113">
       <c r="B113" t="inlineStr">
         <is>
-          <t>Salto de Agua</t>
+          <t>Salto De Agua</t>
         </is>
       </c>
       <c r="C113">
@@ -1876,7 +1876,7 @@
     <row r="115">
       <c r="B115" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C115">
@@ -2388,7 +2388,7 @@
     <row r="154">
       <c r="B154" t="inlineStr">
         <is>
-          <t>Guadalupe y Calvo</t>
+          <t>Guadalupe Y Calvo</t>
         </is>
       </c>
       <c r="C154">
@@ -2427,7 +2427,7 @@
     <row r="157">
       <c r="B157" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C157">
@@ -2518,7 +2518,7 @@
     <row r="164">
       <c r="B164" t="inlineStr">
         <is>
-          <t>San Francisco de Borja</t>
+          <t>San Francisco De Borja</t>
         </is>
       </c>
       <c r="C164">
@@ -2531,7 +2531,7 @@
     <row r="165">
       <c r="B165" t="inlineStr">
         <is>
-          <t>San Francisco del Oro</t>
+          <t>San Francisco Del Oro</t>
         </is>
       </c>
       <c r="C165">
@@ -2596,7 +2596,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -2640,7 +2640,7 @@
     <row r="173">
       <c r="B173" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C173">
@@ -2835,7 +2835,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Coahuila de Zaragoza</t>
+          <t>Coahuila De Zaragoza</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -3048,7 +3048,7 @@
     <row r="204">
       <c r="B204" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C204">
@@ -3435,7 +3435,7 @@
     <row r="233">
       <c r="B233" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C233">
@@ -3513,7 +3513,7 @@
     <row r="239">
       <c r="B239" t="inlineStr">
         <is>
-          <t>Pánuco de Coronado</t>
+          <t>Pánuco De Coronado</t>
         </is>
       </c>
       <c r="C239">
@@ -3552,7 +3552,7 @@
     <row r="242">
       <c r="B242" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C242">
@@ -3643,12 +3643,12 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C249">
@@ -3687,7 +3687,7 @@
     <row r="252">
       <c r="B252" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C252">
@@ -3700,7 +3700,7 @@
     <row r="253">
       <c r="B253" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C253">
@@ -3778,7 +3778,7 @@
     <row r="259">
       <c r="B259" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C259">
@@ -3856,7 +3856,7 @@
     <row r="265">
       <c r="B265" t="inlineStr">
         <is>
-          <t>Chapa de Mota</t>
+          <t>Chapa De Mota</t>
         </is>
       </c>
       <c r="C265">
@@ -3882,7 +3882,7 @@
     <row r="267">
       <c r="B267" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C267">
@@ -3973,7 +3973,7 @@
     <row r="274">
       <c r="B274" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C274">
@@ -4064,7 +4064,7 @@
     <row r="281">
       <c r="B281" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C281">
@@ -4246,7 +4246,7 @@
     <row r="295">
       <c r="B295" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C295">
@@ -4376,7 +4376,7 @@
     <row r="305">
       <c r="B305" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C305">
@@ -4389,7 +4389,7 @@
     <row r="306">
       <c r="B306" t="inlineStr">
         <is>
-          <t>San Martín de las Pirámides</t>
+          <t>San Martín De Las Pirámides</t>
         </is>
       </c>
       <c r="C306">
@@ -4415,7 +4415,7 @@
     <row r="308">
       <c r="B308" t="inlineStr">
         <is>
-          <t>San Simón de Guerrero</t>
+          <t>San Simón De Guerrero</t>
         </is>
       </c>
       <c r="C308">
@@ -4441,7 +4441,7 @@
     <row r="310">
       <c r="B310" t="inlineStr">
         <is>
-          <t>Soyaniquilpan de Juárez</t>
+          <t>Soyaniquilpan De Juárez</t>
         </is>
       </c>
       <c r="C310">
@@ -4558,7 +4558,7 @@
     <row r="319">
       <c r="B319" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C319">
@@ -4688,7 +4688,7 @@
     <row r="329">
       <c r="B329" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C329">
@@ -4766,7 +4766,7 @@
     <row r="335">
       <c r="B335" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C335">
@@ -4779,7 +4779,7 @@
     <row r="336">
       <c r="B336" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C336">
@@ -4818,7 +4818,7 @@
     <row r="339">
       <c r="B339" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C339">
@@ -4831,7 +4831,7 @@
     <row r="340">
       <c r="B340" t="inlineStr">
         <is>
-          <t>Villa del Carbón</t>
+          <t>Villa Del Carbón</t>
         </is>
       </c>
       <c r="C340">
@@ -4966,7 +4966,7 @@
     <row r="350">
       <c r="B350" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C350">
@@ -4979,7 +4979,7 @@
     <row r="351">
       <c r="B351" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C351">
@@ -5096,7 +5096,7 @@
     <row r="360">
       <c r="B360" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C360">
@@ -5148,7 +5148,7 @@
     <row r="364">
       <c r="B364" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C364">
@@ -5239,7 +5239,7 @@
     <row r="371">
       <c r="B371" t="inlineStr">
         <is>
-          <t>Purísima del Rincón</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C371">
@@ -5304,7 +5304,7 @@
     <row r="376">
       <c r="B376" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C376">
@@ -5330,7 +5330,7 @@
     <row r="378">
       <c r="B378" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C378">
@@ -5356,7 +5356,7 @@
     <row r="380">
       <c r="B380" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C380">
@@ -5369,7 +5369,7 @@
     <row r="381">
       <c r="B381" t="inlineStr">
         <is>
-          <t>San Miguel de Allende</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C381">
@@ -5395,7 +5395,7 @@
     <row r="383">
       <c r="B383" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C383">
@@ -5408,7 +5408,7 @@
     <row r="384">
       <c r="B384" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C384">
@@ -5473,7 +5473,7 @@
     <row r="389">
       <c r="B389" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C389">
@@ -5556,7 +5556,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C395">
@@ -5595,7 +5595,7 @@
     <row r="398">
       <c r="B398" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C398">
@@ -5608,7 +5608,7 @@
     <row r="399">
       <c r="B399" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C399">
@@ -5660,7 +5660,7 @@
     <row r="403">
       <c r="B403" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C403">
@@ -5686,7 +5686,7 @@
     <row r="405">
       <c r="B405" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C405">
@@ -5699,7 +5699,7 @@
     <row r="406">
       <c r="B406" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C406">
@@ -5725,7 +5725,7 @@
     <row r="408">
       <c r="B408" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C408">
@@ -5738,7 +5738,7 @@
     <row r="409">
       <c r="B409" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C409">
@@ -5751,7 +5751,7 @@
     <row r="410">
       <c r="B410" t="inlineStr">
         <is>
-          <t>Cochoapa el Grande</t>
+          <t>Cochoapa El Grande</t>
         </is>
       </c>
       <c r="C410">
@@ -5816,7 +5816,7 @@
     <row r="415">
       <c r="B415" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C415">
@@ -5829,7 +5829,7 @@
     <row r="416">
       <c r="B416" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C416">
@@ -5881,7 +5881,7 @@
     <row r="420">
       <c r="B420" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C420">
@@ -5894,7 +5894,7 @@
     <row r="421">
       <c r="B421" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C421">
@@ -5985,7 +5985,7 @@
     <row r="428">
       <c r="B428" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C428">
@@ -5998,7 +5998,7 @@
     <row r="429">
       <c r="B429" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C429">
@@ -6024,7 +6024,7 @@
     <row r="431">
       <c r="B431" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C431">
@@ -6037,7 +6037,7 @@
     <row r="432">
       <c r="B432" t="inlineStr">
         <is>
-          <t>José Joaquín de Herrera</t>
+          <t>José Joaquín De Herrera</t>
         </is>
       </c>
       <c r="C432">
@@ -6076,7 +6076,7 @@
     <row r="435">
       <c r="B435" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C435">
@@ -6154,7 +6154,7 @@
     <row r="441">
       <c r="B441" t="inlineStr">
         <is>
-          <t>Mártir de Cuilapan</t>
+          <t>Mártir De Cuilapan</t>
         </is>
       </c>
       <c r="C441">
@@ -6297,7 +6297,7 @@
     <row r="452">
       <c r="B452" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C452">
@@ -6336,7 +6336,7 @@
     <row r="455">
       <c r="B455" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C455">
@@ -6362,7 +6362,7 @@
     <row r="457">
       <c r="B457" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C457">
@@ -6414,7 +6414,7 @@
     <row r="461">
       <c r="B461" t="inlineStr">
         <is>
-          <t>Tlalixtaquilla de Maldonado</t>
+          <t>Tlalixtaquilla De Maldonado</t>
         </is>
       </c>
       <c r="C461">
@@ -6427,7 +6427,7 @@
     <row r="462">
       <c r="B462" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C462">
@@ -6453,7 +6453,7 @@
     <row r="464">
       <c r="B464" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C464">
@@ -6518,7 +6518,7 @@
     <row r="469">
       <c r="B469" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C469">
@@ -6666,7 +6666,7 @@
     <row r="480">
       <c r="B480" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C480">
@@ -6744,7 +6744,7 @@
     <row r="486">
       <c r="B486" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C486">
@@ -6809,7 +6809,7 @@
     <row r="491">
       <c r="B491" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C491">
@@ -6861,7 +6861,7 @@
     <row r="495">
       <c r="B495" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C495">
@@ -6913,7 +6913,7 @@
     <row r="499">
       <c r="B499" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C499">
@@ -7004,7 +7004,7 @@
     <row r="506">
       <c r="B506" t="inlineStr">
         <is>
-          <t>Mineral del Chico</t>
+          <t>Mineral Del Chico</t>
         </is>
       </c>
       <c r="C506">
@@ -7017,7 +7017,7 @@
     <row r="507">
       <c r="B507" t="inlineStr">
         <is>
-          <t>Mineral del Monte</t>
+          <t>Mineral Del Monte</t>
         </is>
       </c>
       <c r="C507">
@@ -7030,7 +7030,7 @@
     <row r="508">
       <c r="B508" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C508">
@@ -7043,7 +7043,7 @@
     <row r="509">
       <c r="B509" t="inlineStr">
         <is>
-          <t>Molango de Escamilla</t>
+          <t>Molango De Escamilla</t>
         </is>
       </c>
       <c r="C509">
@@ -7069,7 +7069,7 @@
     <row r="511">
       <c r="B511" t="inlineStr">
         <is>
-          <t>Nopala de Villagrán</t>
+          <t>Nopala De Villagrán</t>
         </is>
       </c>
       <c r="C511">
@@ -7082,7 +7082,7 @@
     <row r="512">
       <c r="B512" t="inlineStr">
         <is>
-          <t>Omitlán de Juárez</t>
+          <t>Omitlán De Juárez</t>
         </is>
       </c>
       <c r="C512">
@@ -7095,7 +7095,7 @@
     <row r="513">
       <c r="B513" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C513">
@@ -7134,7 +7134,7 @@
     <row r="516">
       <c r="B516" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C516">
@@ -7212,7 +7212,7 @@
     <row r="522">
       <c r="B522" t="inlineStr">
         <is>
-          <t>Santiago Tulantepec de Lugo Guerrero</t>
+          <t>Santiago Tulantepec De Lugo Guerrero</t>
         </is>
       </c>
       <c r="C522">
@@ -7225,7 +7225,7 @@
     <row r="523">
       <c r="B523" t="inlineStr">
         <is>
-          <t>Santiago de Anaya</t>
+          <t>Santiago De Anaya</t>
         </is>
       </c>
       <c r="C523">
@@ -7277,7 +7277,7 @@
     <row r="527">
       <c r="B527" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C527">
@@ -7303,7 +7303,7 @@
     <row r="529">
       <c r="B529" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerrero</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C529">
@@ -7316,7 +7316,7 @@
     <row r="530">
       <c r="B530" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C530">
@@ -7342,7 +7342,7 @@
     <row r="532">
       <c r="B532" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C532">
@@ -7433,7 +7433,7 @@
     <row r="539">
       <c r="B539" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C539">
@@ -7446,7 +7446,7 @@
     <row r="540">
       <c r="B540" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C540">
@@ -7485,7 +7485,7 @@
     <row r="543">
       <c r="B543" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C543">
@@ -7498,7 +7498,7 @@
     <row r="544">
       <c r="B544" t="inlineStr">
         <is>
-          <t>Zapotlán de Juárez</t>
+          <t>Zapotlán De Juárez</t>
         </is>
       </c>
       <c r="C544">
@@ -7568,7 +7568,7 @@
     <row r="549">
       <c r="B549" t="inlineStr">
         <is>
-          <t>Acatlán de Juárez</t>
+          <t>Acatlán De Juárez</t>
         </is>
       </c>
       <c r="C549">
@@ -7581,7 +7581,7 @@
     <row r="550">
       <c r="B550" t="inlineStr">
         <is>
-          <t>Ahualulco de Mercado</t>
+          <t>Ahualulco De Mercado</t>
         </is>
       </c>
       <c r="C550">
@@ -7646,7 +7646,7 @@
     <row r="555">
       <c r="B555" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C555">
@@ -7659,7 +7659,7 @@
     <row r="556">
       <c r="B556" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C556">
@@ -7776,7 +7776,7 @@
     <row r="565">
       <c r="B565" t="inlineStr">
         <is>
-          <t>Cuautitlán de García Barragán</t>
+          <t>Cuautitlán De García Barragán</t>
         </is>
       </c>
       <c r="C565">
@@ -7854,7 +7854,7 @@
     <row r="571">
       <c r="B571" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C571">
@@ -7906,7 +7906,7 @@
     <row r="575">
       <c r="B575" t="inlineStr">
         <is>
-          <t>Huejuquilla el Alto</t>
+          <t>Huejuquilla El Alto</t>
         </is>
       </c>
       <c r="C575">
@@ -7945,7 +7945,7 @@
     <row r="578">
       <c r="B578" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C578">
@@ -7997,7 +7997,7 @@
     <row r="582">
       <c r="B582" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C582">
@@ -8075,7 +8075,7 @@
     <row r="588">
       <c r="B588" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C588">
@@ -8140,7 +8140,7 @@
     <row r="593">
       <c r="B593" t="inlineStr">
         <is>
-          <t>San Diego de Alejandría</t>
+          <t>San Diego De Alejandría</t>
         </is>
       </c>
       <c r="C593">
@@ -8179,7 +8179,7 @@
     <row r="596">
       <c r="B596" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C596">
@@ -8205,7 +8205,7 @@
     <row r="598">
       <c r="B598" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C598">
@@ -8244,7 +8244,7 @@
     <row r="601">
       <c r="B601" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C601">
@@ -8270,7 +8270,7 @@
     <row r="603">
       <c r="B603" t="inlineStr">
         <is>
-          <t>Techaluta de Montenegro</t>
+          <t>Techaluta De Montenegro</t>
         </is>
       </c>
       <c r="C603">
@@ -8296,7 +8296,7 @@
     <row r="605">
       <c r="B605" t="inlineStr">
         <is>
-          <t>Teocuitatlán de Corona</t>
+          <t>Teocuitatlán De Corona</t>
         </is>
       </c>
       <c r="C605">
@@ -8309,7 +8309,7 @@
     <row r="606">
       <c r="B606" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C606">
@@ -8335,7 +8335,7 @@
     <row r="608">
       <c r="B608" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C608">
@@ -8426,7 +8426,7 @@
     <row r="615">
       <c r="B615" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C615">
@@ -8439,7 +8439,7 @@
     <row r="616">
       <c r="B616" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C616">
@@ -8452,7 +8452,7 @@
     <row r="617">
       <c r="B617" t="inlineStr">
         <is>
-          <t>Valle de Juárez</t>
+          <t>Valle De Juárez</t>
         </is>
       </c>
       <c r="C617">
@@ -8491,7 +8491,7 @@
     <row r="620">
       <c r="B620" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C620">
@@ -8504,7 +8504,7 @@
     <row r="621">
       <c r="B621" t="inlineStr">
         <is>
-          <t>Zacoalco de Torres</t>
+          <t>Zacoalco De Torres</t>
         </is>
       </c>
       <c r="C621">
@@ -8543,7 +8543,7 @@
     <row r="624">
       <c r="B624" t="inlineStr">
         <is>
-          <t>Zapotitlán de Vadillo</t>
+          <t>Zapotitlán De Vadillo</t>
         </is>
       </c>
       <c r="C624">
@@ -8569,7 +8569,7 @@
     <row r="626">
       <c r="B626" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C626">
@@ -8595,7 +8595,7 @@
     <row r="628">
       <c r="A628" t="inlineStr">
         <is>
-          <t>Michoacán de Ocampo</t>
+          <t>Michoacán De Ocampo</t>
         </is>
       </c>
       <c r="B628" t="inlineStr">
@@ -8834,7 +8834,7 @@
     <row r="646">
       <c r="B646" t="inlineStr">
         <is>
-          <t>Coalcomán de Vázquez Pallares</t>
+          <t>Coalcomán De Vázquez Pallares</t>
         </is>
       </c>
       <c r="C646">
@@ -9640,7 +9640,7 @@
     <row r="708">
       <c r="B708" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C708">
@@ -9905,7 +9905,7 @@
     <row r="728">
       <c r="B728" t="inlineStr">
         <is>
-          <t>Coatlán del Río</t>
+          <t>Coatlán Del Río</t>
         </is>
       </c>
       <c r="C728">
@@ -10061,7 +10061,7 @@
     <row r="740">
       <c r="B740" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C740">
@@ -10126,7 +10126,7 @@
     <row r="745">
       <c r="B745" t="inlineStr">
         <is>
-          <t>Tetela del Volcán</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C745">
@@ -10152,7 +10152,7 @@
     <row r="747">
       <c r="B747" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C747">
@@ -10274,7 +10274,7 @@
     <row r="756">
       <c r="B756" t="inlineStr">
         <is>
-          <t>Amatlán de Cañas</t>
+          <t>Amatlán De Cañas</t>
         </is>
       </c>
       <c r="C756">
@@ -10287,7 +10287,7 @@
     <row r="757">
       <c r="B757" t="inlineStr">
         <is>
-          <t>Bahía de Banderas</t>
+          <t>Bahía De Banderas</t>
         </is>
       </c>
       <c r="C757">
@@ -10326,7 +10326,7 @@
     <row r="760">
       <c r="B760" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C760">
@@ -10391,7 +10391,7 @@
     <row r="765">
       <c r="B765" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C765">
@@ -10630,7 +10630,7 @@
     <row r="783">
       <c r="B783" t="inlineStr">
         <is>
-          <t>Mier y Noriega</t>
+          <t>Mier Y Noriega</t>
         </is>
       </c>
       <c r="C783">
@@ -10682,7 +10682,7 @@
     <row r="787">
       <c r="B787" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C787">
@@ -10752,7 +10752,7 @@
     <row r="792">
       <c r="B792" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C792">
@@ -10856,7 +10856,7 @@
     <row r="800">
       <c r="B800" t="inlineStr">
         <is>
-          <t>Chalcatongo de Hidalgo</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C800">
@@ -10882,7 +10882,7 @@
     <row r="802">
       <c r="B802" t="inlineStr">
         <is>
-          <t>Coicoyán de las Flores</t>
+          <t>Coicoyán De Las Flores</t>
         </is>
       </c>
       <c r="C802">
@@ -10921,7 +10921,7 @@
     <row r="805">
       <c r="B805" t="inlineStr">
         <is>
-          <t>Constancia del Rosario</t>
+          <t>Constancia Del Rosario</t>
         </is>
       </c>
       <c r="C805">
@@ -10947,7 +10947,7 @@
     <row r="807">
       <c r="B807" t="inlineStr">
         <is>
-          <t>Cuilápam de Guerrero</t>
+          <t>Cuilápam De Guerrero</t>
         </is>
       </c>
       <c r="C807">
@@ -10973,7 +10973,7 @@
     <row r="809">
       <c r="B809" t="inlineStr">
         <is>
-          <t>El Barrio de la Soledad</t>
+          <t>El Barrio De La Soledad</t>
         </is>
       </c>
       <c r="C809">
@@ -10986,7 +10986,7 @@
     <row r="810">
       <c r="B810" t="inlineStr">
         <is>
-          <t>Guadalupe de Ramírez</t>
+          <t>Guadalupe De Ramírez</t>
         </is>
       </c>
       <c r="C810">
@@ -10999,7 +10999,7 @@
     <row r="811">
       <c r="B811" t="inlineStr">
         <is>
-          <t>Guevea de Humboldt</t>
+          <t>Guevea De Humboldt</t>
         </is>
       </c>
       <c r="C811">
@@ -11012,7 +11012,7 @@
     <row r="812">
       <c r="B812" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C812">
@@ -11025,7 +11025,7 @@
     <row r="813">
       <c r="B813" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C813">
@@ -11038,7 +11038,7 @@
     <row r="814">
       <c r="B814" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C814">
@@ -11051,7 +11051,7 @@
     <row r="815">
       <c r="B815" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C815">
@@ -11064,7 +11064,7 @@
     <row r="816">
       <c r="B816" t="inlineStr">
         <is>
-          <t>Huajuapan de León</t>
+          <t>Huajuapan De León</t>
         </is>
       </c>
       <c r="C816">
@@ -11077,7 +11077,7 @@
     <row r="817">
       <c r="B817" t="inlineStr">
         <is>
-          <t>Huautla de Jiménez</t>
+          <t>Huautla De Jiménez</t>
         </is>
       </c>
       <c r="C817">
@@ -11090,7 +11090,7 @@
     <row r="818">
       <c r="B818" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C818">
@@ -11142,7 +11142,7 @@
     <row r="822">
       <c r="B822" t="inlineStr">
         <is>
-          <t>Mariscala de Juárez</t>
+          <t>Mariscala De Juárez</t>
         </is>
       </c>
       <c r="C822">
@@ -11168,7 +11168,7 @@
     <row r="824">
       <c r="B824" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C824">
@@ -11194,7 +11194,7 @@
     <row r="826">
       <c r="B826" t="inlineStr">
         <is>
-          <t>Mártires de Tacubaya</t>
+          <t>Mártires De Tacubaya</t>
         </is>
       </c>
       <c r="C826">
@@ -11207,7 +11207,7 @@
     <row r="827">
       <c r="B827" t="inlineStr">
         <is>
-          <t>Nejapa de Madero</t>
+          <t>Nejapa De Madero</t>
         </is>
       </c>
       <c r="C827">
@@ -11233,7 +11233,7 @@
     <row r="829">
       <c r="B829" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C829">
@@ -11246,7 +11246,7 @@
     <row r="830">
       <c r="B830" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C830">
@@ -11259,7 +11259,7 @@
     <row r="831">
       <c r="B831" t="inlineStr">
         <is>
-          <t>Pinotepa de Don Luis</t>
+          <t>Pinotepa De Don Luis</t>
         </is>
       </c>
       <c r="C831">
@@ -11285,7 +11285,7 @@
     <row r="833">
       <c r="B833" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C833">
@@ -11428,7 +11428,7 @@
     <row r="844">
       <c r="B844" t="inlineStr">
         <is>
-          <t>San Antonino el Alto</t>
+          <t>San Antonino El Alto</t>
         </is>
       </c>
       <c r="C844">
@@ -11597,7 +11597,7 @@
     <row r="857">
       <c r="B857" t="inlineStr">
         <is>
-          <t>San Dionisio del Mar</t>
+          <t>San Dionisio Del Mar</t>
         </is>
       </c>
       <c r="C857">
@@ -11623,7 +11623,7 @@
     <row r="859">
       <c r="B859" t="inlineStr">
         <is>
-          <t>San Felipe Jalapa de Díaz</t>
+          <t>San Felipe Jalapa De Díaz</t>
         </is>
       </c>
       <c r="C859">
@@ -11701,7 +11701,7 @@
     <row r="865">
       <c r="B865" t="inlineStr">
         <is>
-          <t>San Francisco del Mar</t>
+          <t>San Francisco Del Mar</t>
         </is>
       </c>
       <c r="C865">
@@ -12143,7 +12143,7 @@
     <row r="899">
       <c r="B899" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C899">
@@ -12338,7 +12338,7 @@
     <row r="914">
       <c r="B914" t="inlineStr">
         <is>
-          <t>San Mateo del Mar</t>
+          <t>San Mateo Del Mar</t>
         </is>
       </c>
       <c r="C914">
@@ -12494,7 +12494,7 @@
     <row r="926">
       <c r="B926" t="inlineStr">
         <is>
-          <t>San Miguel del Puerto</t>
+          <t>San Miguel Del Puerto</t>
         </is>
       </c>
       <c r="C926">
@@ -12507,7 +12507,7 @@
     <row r="927">
       <c r="B927" t="inlineStr">
         <is>
-          <t>San Miguel el Grande</t>
+          <t>San Miguel El Grande</t>
         </is>
       </c>
       <c r="C927">
@@ -12754,7 +12754,7 @@
     <row r="946">
       <c r="B946" t="inlineStr">
         <is>
-          <t>San Pedro el Alto</t>
+          <t>San Pedro El Alto</t>
         </is>
       </c>
       <c r="C946">
@@ -12767,7 +12767,7 @@
     <row r="947">
       <c r="B947" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Ayutla</t>
+          <t>San Pedro Y San Pablo Ayutla</t>
         </is>
       </c>
       <c r="C947">
@@ -12780,7 +12780,7 @@
     <row r="948">
       <c r="B948" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Teposcolula</t>
+          <t>San Pedro Y San Pablo Teposcolula</t>
         </is>
       </c>
       <c r="C948">
@@ -12793,7 +12793,7 @@
     <row r="949">
       <c r="B949" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Tequixtepec</t>
+          <t>San Pedro Y San Pablo Tequixtepec</t>
         </is>
       </c>
       <c r="C949">
@@ -13053,7 +13053,7 @@
     <row r="969">
       <c r="B969" t="inlineStr">
         <is>
-          <t>Santa Inés del Monte</t>
+          <t>Santa Inés Del Monte</t>
         </is>
       </c>
       <c r="C969">
@@ -13196,7 +13196,7 @@
     <row r="980">
       <c r="B980" t="inlineStr">
         <is>
-          <t>Santa María Jalapa del Marqués</t>
+          <t>Santa María Jalapa Del Marqués</t>
         </is>
       </c>
       <c r="C980">
@@ -13365,7 +13365,7 @@
     <row r="993">
       <c r="B993" t="inlineStr">
         <is>
-          <t>Santa María del Rosario</t>
+          <t>Santa María Del Rosario</t>
         </is>
       </c>
       <c r="C993">
@@ -13794,7 +13794,7 @@
     <row r="1026">
       <c r="B1026" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C1026">
@@ -13898,7 +13898,7 @@
     <row r="1034">
       <c r="B1034" t="inlineStr">
         <is>
-          <t>Tataltepec de Valdés</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C1034">
@@ -13911,7 +13911,7 @@
     <row r="1035">
       <c r="B1035" t="inlineStr">
         <is>
-          <t>Teotitlán de Flores Magón</t>
+          <t>Teotitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C1035">
@@ -13937,7 +13937,7 @@
     <row r="1037">
       <c r="B1037" t="inlineStr">
         <is>
-          <t>Tezoatlán de Segura y Luna</t>
+          <t>Tezoatlán De Segura Y Luna</t>
         </is>
       </c>
       <c r="C1037">
@@ -13950,7 +13950,7 @@
     <row r="1038">
       <c r="B1038" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C1038">
@@ -13963,7 +13963,7 @@
     <row r="1039">
       <c r="B1039" t="inlineStr">
         <is>
-          <t>Totontepec Villa de Morelos</t>
+          <t>Totontepec Villa De Morelos</t>
         </is>
       </c>
       <c r="C1039">
@@ -14015,7 +14015,7 @@
     <row r="1043">
       <c r="B1043" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C1043">
@@ -14028,7 +14028,7 @@
     <row r="1044">
       <c r="B1044" t="inlineStr">
         <is>
-          <t>Villa de Chilapa de Díaz</t>
+          <t>Villa De Chilapa De Díaz</t>
         </is>
       </c>
       <c r="C1044">
@@ -14041,7 +14041,7 @@
     <row r="1045">
       <c r="B1045" t="inlineStr">
         <is>
-          <t>Villa de Etla</t>
+          <t>Villa De Etla</t>
         </is>
       </c>
       <c r="C1045">
@@ -14054,7 +14054,7 @@
     <row r="1046">
       <c r="B1046" t="inlineStr">
         <is>
-          <t>Villa de Tututepec</t>
+          <t>Villa De Tututepec</t>
         </is>
       </c>
       <c r="C1046">
@@ -14067,7 +14067,7 @@
     <row r="1047">
       <c r="B1047" t="inlineStr">
         <is>
-          <t>Villa de Tututepec de Melchor Ocampo</t>
+          <t>Villa De Tututepec De Melchor Ocampo</t>
         </is>
       </c>
       <c r="C1047">
@@ -14080,7 +14080,7 @@
     <row r="1048">
       <c r="B1048" t="inlineStr">
         <is>
-          <t>Villa de Zaachila</t>
+          <t>Villa De Zaachila</t>
         </is>
       </c>
       <c r="C1048">
@@ -14093,7 +14093,7 @@
     <row r="1049">
       <c r="B1049" t="inlineStr">
         <is>
-          <t>Yutanduchi de Guerrero</t>
+          <t>Yutanduchi De Guerrero</t>
         </is>
       </c>
       <c r="C1049">
@@ -14132,7 +14132,7 @@
     <row r="1052">
       <c r="B1052" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C1052">
@@ -14345,7 +14345,7 @@
     <row r="1068">
       <c r="B1068" t="inlineStr">
         <is>
-          <t>Ayotoxco de Guerrero</t>
+          <t>Ayotoxco De Guerrero</t>
         </is>
       </c>
       <c r="C1068">
@@ -14371,7 +14371,7 @@
     <row r="1070">
       <c r="B1070" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C1070">
@@ -14566,7 +14566,7 @@
     <row r="1085">
       <c r="B1085" t="inlineStr">
         <is>
-          <t>Cuetzalan del Progreso</t>
+          <t>Cuetzalan Del Progreso</t>
         </is>
       </c>
       <c r="C1085">
@@ -14735,7 +14735,7 @@
     <row r="1098">
       <c r="B1098" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C1098">
@@ -14800,7 +14800,7 @@
     <row r="1103">
       <c r="B1103" t="inlineStr">
         <is>
-          <t>Huitzilan de Serdán</t>
+          <t>Huitzilan De Serdán</t>
         </is>
       </c>
       <c r="C1103">
@@ -14813,7 +14813,7 @@
     <row r="1104">
       <c r="B1104" t="inlineStr">
         <is>
-          <t>Ixcamilpa de Guerrero</t>
+          <t>Ixcamilpa De Guerrero</t>
         </is>
       </c>
       <c r="C1104">
@@ -14852,7 +14852,7 @@
     <row r="1107">
       <c r="B1107" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C1107">
@@ -14969,7 +14969,7 @@
     <row r="1116">
       <c r="B1116" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C1116">
@@ -15034,7 +15034,7 @@
     <row r="1121">
       <c r="B1121" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C1121">
@@ -15242,7 +15242,7 @@
     <row r="1137">
       <c r="B1137" t="inlineStr">
         <is>
-          <t>San Nicolás de los Ranchos</t>
+          <t>San Nicolás De Los Ranchos</t>
         </is>
       </c>
       <c r="C1137">
@@ -15281,7 +15281,7 @@
     <row r="1140">
       <c r="B1140" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C1140">
@@ -15294,7 +15294,7 @@
     <row r="1141">
       <c r="B1141" t="inlineStr">
         <is>
-          <t>San Salvador el Verde</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C1141">
@@ -15346,7 +15346,7 @@
     <row r="1145">
       <c r="B1145" t="inlineStr">
         <is>
-          <t>Tecali de Herrera</t>
+          <t>Tecali De Herrera</t>
         </is>
       </c>
       <c r="C1145">
@@ -15424,7 +15424,7 @@
     <row r="1151">
       <c r="B1151" t="inlineStr">
         <is>
-          <t>Tepatlaxco de Hidalgo</t>
+          <t>Tepatlaxco De Hidalgo</t>
         </is>
       </c>
       <c r="C1151">
@@ -15476,7 +15476,7 @@
     <row r="1155">
       <c r="B1155" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C1155">
@@ -15502,7 +15502,7 @@
     <row r="1157">
       <c r="B1157" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C1157">
@@ -15515,7 +15515,7 @@
     <row r="1158">
       <c r="B1158" t="inlineStr">
         <is>
-          <t>Teteles de Avila Castillo</t>
+          <t>Teteles De Avila Castillo</t>
         </is>
       </c>
       <c r="C1158">
@@ -15567,7 +15567,7 @@
     <row r="1162">
       <c r="B1162" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C1162">
@@ -15723,7 +15723,7 @@
     <row r="1174">
       <c r="B1174" t="inlineStr">
         <is>
-          <t>Xayacatlán de Bravo</t>
+          <t>Xayacatlán De Bravo</t>
         </is>
       </c>
       <c r="C1174">
@@ -15936,7 +15936,7 @@
       </c>
       <c r="B1190" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C1190">
@@ -15962,7 +15962,7 @@
     <row r="1192">
       <c r="B1192" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C1192">
@@ -16053,7 +16053,7 @@
     <row r="1199">
       <c r="B1199" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C1199">
@@ -16066,7 +16066,7 @@
     <row r="1200">
       <c r="B1200" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C1200">
@@ -16105,7 +16105,7 @@
     <row r="1203">
       <c r="B1203" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C1203">
@@ -16144,7 +16144,7 @@
     <row r="1206">
       <c r="B1206" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C1206">
@@ -16323,7 +16323,7 @@
     <row r="1219">
       <c r="B1219" t="inlineStr">
         <is>
-          <t>Armadillo de los Infante</t>
+          <t>Armadillo De Los Infante</t>
         </is>
       </c>
       <c r="C1219">
@@ -16336,7 +16336,7 @@
     <row r="1220">
       <c r="B1220" t="inlineStr">
         <is>
-          <t>Axtla de Terrazas</t>
+          <t>Axtla De Terrazas</t>
         </is>
       </c>
       <c r="C1220">
@@ -16375,7 +16375,7 @@
     <row r="1223">
       <c r="B1223" t="inlineStr">
         <is>
-          <t>Cerro de San Pedro</t>
+          <t>Cerro De San Pedro</t>
         </is>
       </c>
       <c r="C1223">
@@ -16427,7 +16427,7 @@
     <row r="1227">
       <c r="B1227" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C1227">
@@ -16557,7 +16557,7 @@
     <row r="1237">
       <c r="B1237" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C1237">
@@ -16622,7 +16622,7 @@
     <row r="1242">
       <c r="B1242" t="inlineStr">
         <is>
-          <t>San Ciro de Acosta</t>
+          <t>San Ciro De Acosta</t>
         </is>
       </c>
       <c r="C1242">
@@ -16700,7 +16700,7 @@
     <row r="1248">
       <c r="B1248" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C1248">
@@ -16713,7 +16713,7 @@
     <row r="1249">
       <c r="B1249" t="inlineStr">
         <is>
-          <t>Soledad de Graciano Sánchez</t>
+          <t>Soledad De Graciano Sánchez</t>
         </is>
       </c>
       <c r="C1249">
@@ -16791,7 +16791,7 @@
     <row r="1255">
       <c r="B1255" t="inlineStr">
         <is>
-          <t>Tanquián de Escobedo</t>
+          <t>Tanquián De Escobedo</t>
         </is>
       </c>
       <c r="C1255">
@@ -16817,7 +16817,7 @@
     <row r="1257">
       <c r="B1257" t="inlineStr">
         <is>
-          <t>Villa de Arista</t>
+          <t>Villa De Arista</t>
         </is>
       </c>
       <c r="C1257">
@@ -16830,7 +16830,7 @@
     <row r="1258">
       <c r="B1258" t="inlineStr">
         <is>
-          <t>Villa de Arriaga</t>
+          <t>Villa De Arriaga</t>
         </is>
       </c>
       <c r="C1258">
@@ -16843,7 +16843,7 @@
     <row r="1259">
       <c r="B1259" t="inlineStr">
         <is>
-          <t>Villa de Guadalupe</t>
+          <t>Villa De Guadalupe</t>
         </is>
       </c>
       <c r="C1259">
@@ -16856,7 +16856,7 @@
     <row r="1260">
       <c r="B1260" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C1260">
@@ -16869,7 +16869,7 @@
     <row r="1261">
       <c r="B1261" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C1261">
@@ -16882,7 +16882,7 @@
     <row r="1262">
       <c r="B1262" t="inlineStr">
         <is>
-          <t>Villa de la Paz</t>
+          <t>Villa De La Paz</t>
         </is>
       </c>
       <c r="C1262">
@@ -17417,7 +17417,7 @@
     <row r="1302">
       <c r="B1302" t="inlineStr">
         <is>
-          <t>Jalpa de Méndez</t>
+          <t>Jalpa De Méndez</t>
         </is>
       </c>
       <c r="C1302">
@@ -17877,7 +17877,7 @@
     <row r="1337">
       <c r="B1337" t="inlineStr">
         <is>
-          <t>Soto la Marina</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C1337">
@@ -18025,7 +18025,7 @@
     <row r="1348">
       <c r="B1348" t="inlineStr">
         <is>
-          <t>Contla de Juan Cuamatzi</t>
+          <t>Contla De Juan Cuamatzi</t>
         </is>
       </c>
       <c r="C1348">
@@ -18103,7 +18103,7 @@
     <row r="1354">
       <c r="B1354" t="inlineStr">
         <is>
-          <t>Ixtacuixtla de Mariano Matamoros</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C1354">
@@ -18142,7 +18142,7 @@
     <row r="1357">
       <c r="B1357" t="inlineStr">
         <is>
-          <t>Papalotla de Xicohténcatl</t>
+          <t>Papalotla De Xicohténcatl</t>
         </is>
       </c>
       <c r="C1357">
@@ -18181,7 +18181,7 @@
     <row r="1360">
       <c r="B1360" t="inlineStr">
         <is>
-          <t>San Pablo del Monte</t>
+          <t>San Pablo Del Monte</t>
         </is>
       </c>
       <c r="C1360">
@@ -18246,7 +18246,7 @@
     <row r="1365">
       <c r="B1365" t="inlineStr">
         <is>
-          <t>Tetla de la Solidaridad</t>
+          <t>Tetla De La Solidaridad</t>
         </is>
       </c>
       <c r="C1365">
@@ -18389,7 +18389,7 @@
     <row r="1376">
       <c r="A1376" t="inlineStr">
         <is>
-          <t>Veracruz de Ignacio de la Llave</t>
+          <t>Veracruz De Ignacio De La Llave</t>
         </is>
       </c>
       <c r="B1376" t="inlineStr">
@@ -18472,7 +18472,7 @@
     <row r="1382">
       <c r="B1382" t="inlineStr">
         <is>
-          <t>Alto Lucero de Gutiérrez Barrios</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C1382">
@@ -18511,7 +18511,7 @@
     <row r="1385">
       <c r="B1385" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C1385">
@@ -18641,7 +18641,7 @@
     <row r="1395">
       <c r="B1395" t="inlineStr">
         <is>
-          <t>Boca del Río</t>
+          <t>Boca Del Río</t>
         </is>
       </c>
       <c r="C1395">
@@ -18693,7 +18693,7 @@
     <row r="1399">
       <c r="B1399" t="inlineStr">
         <is>
-          <t>Castillo de Teayo</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C1399">
@@ -18719,7 +18719,7 @@
     <row r="1401">
       <c r="B1401" t="inlineStr">
         <is>
-          <t>Cazones de Herrera</t>
+          <t>Cazones De Herrera</t>
         </is>
       </c>
       <c r="C1401">
@@ -18797,7 +18797,7 @@
     <row r="1407">
       <c r="B1407" t="inlineStr">
         <is>
-          <t>Chinampa de Gorostiza</t>
+          <t>Chinampa De Gorostiza</t>
         </is>
       </c>
       <c r="C1407">
@@ -18953,7 +18953,7 @@
     <row r="1419">
       <c r="B1419" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C1419">
@@ -19187,7 +19187,7 @@
     <row r="1437">
       <c r="B1437" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C1437">
@@ -19200,7 +19200,7 @@
     <row r="1438">
       <c r="B1438" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C1438">
@@ -19252,7 +19252,7 @@
     <row r="1442">
       <c r="B1442" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C1442">
@@ -19265,7 +19265,7 @@
     <row r="1443">
       <c r="B1443" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Café</t>
+          <t>Ixhuatlán Del Café</t>
         </is>
       </c>
       <c r="C1443">
@@ -19278,7 +19278,7 @@
     <row r="1444">
       <c r="B1444" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Sureste</t>
+          <t>Ixhuatlán Del Sureste</t>
         </is>
       </c>
       <c r="C1444">
@@ -19382,7 +19382,7 @@
     <row r="1452">
       <c r="B1452" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C1452">
@@ -19447,7 +19447,7 @@
     <row r="1457">
       <c r="B1457" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C1457">
@@ -19512,7 +19512,7 @@
     <row r="1462">
       <c r="B1462" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C1462">
@@ -19577,7 +19577,7 @@
     <row r="1467">
       <c r="B1467" t="inlineStr">
         <is>
-          <t>Mixtla de Altamirano</t>
+          <t>Mixtla De Altamirano</t>
         </is>
       </c>
       <c r="C1467">
@@ -19603,7 +19603,7 @@
     <row r="1469">
       <c r="B1469" t="inlineStr">
         <is>
-          <t>Nanchital de Lázaro Cárdenas del Río</t>
+          <t>Nanchital De Lázaro Cárdenas Del Río</t>
         </is>
       </c>
       <c r="C1469">
@@ -19720,7 +19720,7 @@
     <row r="1478">
       <c r="B1478" t="inlineStr">
         <is>
-          <t>Ozuluama de Mascareñas</t>
+          <t>Ozuluama De Mascareñas</t>
         </is>
       </c>
       <c r="C1478">
@@ -19746,7 +19746,7 @@
     <row r="1480">
       <c r="B1480" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C1480">
@@ -19759,7 +19759,7 @@
     <row r="1481">
       <c r="B1481" t="inlineStr">
         <is>
-          <t>Paso del Macho</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C1481">
@@ -19811,7 +19811,7 @@
     <row r="1485">
       <c r="B1485" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C1485">
@@ -19928,7 +19928,7 @@
     <row r="1494">
       <c r="B1494" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C1494">
@@ -19941,7 +19941,7 @@
     <row r="1495">
       <c r="B1495" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C1495">
@@ -19993,7 +19993,7 @@
     <row r="1499">
       <c r="B1499" t="inlineStr">
         <is>
-          <t>Tatahuicapan de Juárez</t>
+          <t>Tatahuicapan De Juárez</t>
         </is>
       </c>
       <c r="C1499">
@@ -20357,7 +20357,7 @@
     <row r="1527">
       <c r="B1527" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C1527">
@@ -20487,7 +20487,7 @@
     <row r="1537">
       <c r="B1537" t="inlineStr">
         <is>
-          <t>Zontecomatlán de López y Fuentes</t>
+          <t>Zontecomatlán De López Y Fuentes</t>
         </is>
       </c>
       <c r="C1537">
@@ -20500,7 +20500,7 @@
     <row r="1538">
       <c r="B1538" t="inlineStr">
         <is>
-          <t>Zozocolco de Hidalgo</t>
+          <t>Zozocolco De Hidalgo</t>
         </is>
       </c>
       <c r="C1538">
@@ -20731,7 +20731,7 @@
     <row r="1555">
       <c r="B1555" t="inlineStr">
         <is>
-          <t>Cañitas de Felipe Pescador</t>
+          <t>Cañitas De Felipe Pescador</t>
         </is>
       </c>
       <c r="C1555">
@@ -20744,7 +20744,7 @@
     <row r="1556">
       <c r="B1556" t="inlineStr">
         <is>
-          <t>Concepción del Oro</t>
+          <t>Concepción Del Oro</t>
         </is>
       </c>
       <c r="C1556">
@@ -20861,7 +20861,7 @@
     <row r="1565">
       <c r="B1565" t="inlineStr">
         <is>
-          <t>Jiménez del Teul</t>
+          <t>Jiménez Del Teul</t>
         </is>
       </c>
       <c r="C1565">
@@ -20965,7 +20965,7 @@
     <row r="1573">
       <c r="B1573" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C1573">
@@ -20978,7 +20978,7 @@
     <row r="1574">
       <c r="B1574" t="inlineStr">
         <is>
-          <t>Noria de Ángeles</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C1574">
@@ -21082,7 +21082,7 @@
     <row r="1582">
       <c r="B1582" t="inlineStr">
         <is>
-          <t>Teúl de González Ortega</t>
+          <t>Teúl De González Ortega</t>
         </is>
       </c>
       <c r="C1582">
@@ -21095,7 +21095,7 @@
     <row r="1583">
       <c r="B1583" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C1583">
@@ -21199,7 +21199,7 @@
     <row r="1591">
       <c r="A1591" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C1591">
@@ -21207,41 +21207,6 @@
       </c>
       <c r="D1591">
         <v>1</v>
-      </c>
-    </row>
-    <row r="1593">
-      <c r="A1593" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 808,027</t>
-        </is>
-      </c>
-    </row>
-    <row r="1594">
-      <c r="A1594" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1595">
-      <c r="A1595" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de Mexicanas y Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="1596">
-      <c r="A1596" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="1597">
-      <c r="A1597" t="inlineStr">
-        <is>
-          <t>Junio de 2025</t>
-        </is>
       </c>
     </row>
   </sheetData>
